--- a/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T20:45:39+02:00</t>
+    <t>2023-07-24T23:46:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-AppointmentResponse</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-AppointmentResponse</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T10:10:09+02:00</t>
+    <t>2023-09-20T09:32:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -329,7 +329,7 @@
     <t>shortNotice</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-shortnotice}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-shortnotice}
 </t>
   </si>
   <si>
@@ -392,7 +392,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-shortnotice</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-shortnotice</t>
   </si>
   <si>
     <t>Extension.url</t>

--- a/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:32:23+02:00</t>
+    <t>2023-09-25T00:16:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -140,7 +140,7 @@
   </si>
   <si>
     <t>apr-1:Either the participantType or actor must be specified {participantType.exists() or actor.exists()}
-dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://example.org/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
+dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-1:The 'shortNotice' extension can only be used when the 'actor' is of type 'Patient'. {extension.where(url = 'http://hl7.no/fhir/StructureDefinition/no-basis-shortnotice').value.exists() and actor.type.value = 'Patient'}</t>
   </si>
   <si>
     <t>Request</t>

--- a/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T00:16:31+02:00</t>
+    <t>2023-09-25T11:50:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T11:50:22+02:00</t>
+    <t>2023-09-25T15:31:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:31:18+02:00</t>
+    <t>2023-09-25T15:44:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:44:07+02:00</t>
+    <t>2023-10-05T16:09:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:09:33+02:00</t>
+    <t>2023-10-09T22:41:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T22:41:16+02:00</t>
+    <t>2023-10-11T00:03:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T00:03:21+02:00</t>
+    <t>2023-10-12T00:15:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-AppointmentResponse.xlsx
+++ b/StructureDefinition-no-basis-AppointmentResponse.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:15:11+02:00</t>
+    <t>2023-10-12T00:46:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
